--- a/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
+++ b/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
@@ -2727,7 +2727,7 @@
     <t>Benfica (Portugal)</t>
   </si>
   <si>
-    <t>Nahuel Molina Lucero</t>
+    <t xml:space="preserve">Nahuel Molina </t>
   </si>
   <si>
     <t>Atlético Madrid (España)</t>
@@ -3761,7 +3761,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3790,6 +3790,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3827,13 +3833,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3845,7 +3854,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3856,16 +3865,25 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4176,13 +4194,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="29.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4193,7 +4211,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1184</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4204,7 +4222,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1186</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4215,7 +4233,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1188</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4226,7 +4244,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>1190</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4237,7 +4255,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>1191</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4248,7 +4266,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>1193</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4259,7 +4277,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>1194</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4270,7 +4288,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>1196</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4281,7 +4299,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>1197</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4292,7 +4310,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4303,7 +4321,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>1200</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4314,7 +4332,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>1202</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4325,7 +4343,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>1204</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4336,7 +4354,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>1206</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4347,7 +4365,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>1207</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4358,7 +4376,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4369,7 +4387,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4380,7 +4398,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>1211</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4391,7 +4409,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>1212</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4402,7 +4420,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4413,7 +4431,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>1214</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4424,7 +4442,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>1215</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4435,7 +4453,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>1217</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4446,7 +4464,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>1219</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4457,7 +4475,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>1221</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4468,7 +4486,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>1223</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4479,7 +4497,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="17" t="s">
         <v>1224</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -5470,305 +5488,305 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="33.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A2" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A3" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A4" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A5" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A6" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A7" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A8" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A9" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A10" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>774</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A11" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A12" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A13" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A14" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A15" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A16" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A17" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A18" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>774</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A19" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A20" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A21" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>787</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A22" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A23" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A24" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A25" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A26" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="7">
-      <c r="A27" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="8">
+      <c r="A27" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7381,7 +7399,7 @@
     <col min="1" max="1" style="2" width="28.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -7394,7 +7412,7 @@
       <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
@@ -7406,7 +7424,7 @@
       <c r="C2" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
@@ -7418,7 +7436,7 @@
       <c r="C3" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
@@ -7430,7 +7448,7 @@
       <c r="C4" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
@@ -7442,7 +7460,7 @@
       <c r="C5" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
@@ -7454,7 +7472,7 @@
       <c r="C6" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1" t="s">
@@ -7466,7 +7484,7 @@
       <c r="C7" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
@@ -7478,7 +7496,7 @@
       <c r="C8" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
@@ -7490,7 +7508,7 @@
       <c r="C9" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1" t="s">
@@ -7502,7 +7520,7 @@
       <c r="C10" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1" t="s">
@@ -7514,7 +7532,7 @@
       <c r="C11" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
@@ -7526,7 +7544,7 @@
       <c r="C12" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1" t="s">
@@ -7538,7 +7556,7 @@
       <c r="C13" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1" t="s">
@@ -7550,7 +7568,7 @@
       <c r="C14" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
@@ -7562,7 +7580,7 @@
       <c r="C15" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
@@ -7574,7 +7592,7 @@
       <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
@@ -7586,7 +7604,7 @@
       <c r="C17" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1" t="s">
@@ -7598,7 +7616,7 @@
       <c r="C18" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1" t="s">
@@ -7610,7 +7628,7 @@
       <c r="C19" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1" t="s">
@@ -7622,7 +7640,7 @@
       <c r="C20" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1" t="s">
@@ -7634,7 +7652,7 @@
       <c r="C21" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
@@ -7646,7 +7664,7 @@
       <c r="C22" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1" t="s">
@@ -7658,7 +7676,7 @@
       <c r="C23" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1" t="s">
@@ -7670,7 +7688,7 @@
       <c r="C24" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
@@ -7682,7 +7700,7 @@
       <c r="C25" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
@@ -7694,7 +7712,7 @@
       <c r="C26" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
@@ -7706,7 +7724,7 @@
       <c r="C27" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
@@ -7718,13 +7736,13 @@
       <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13181,16 +13199,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="28.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -13198,10 +13216,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -13209,10 +13227,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -13220,10 +13238,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -13231,10 +13249,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -13242,10 +13260,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -13253,10 +13271,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -13264,10 +13282,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -13275,10 +13293,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -13286,10 +13304,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -13297,10 +13315,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -13308,10 +13326,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -13319,10 +13337,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -13330,10 +13348,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -13341,10 +13359,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -13352,10 +13370,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -13363,10 +13381,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -13374,10 +13392,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -13385,10 +13403,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>1039</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -13396,10 +13414,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>1040</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -13407,10 +13425,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -13418,10 +13436,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -13429,10 +13447,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -13440,10 +13458,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -13451,10 +13469,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -13462,10 +13480,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -13473,10 +13491,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -13484,10 +13502,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">

--- a/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
+++ b/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Ecuador"/>
@@ -1641,7 +1641,7 @@
     <t>Círculo de Brujas (Bélgica)</t>
   </si>
   <si>
-    <t>Shuto Machino*</t>
+    <t>Shuto Machino</t>
   </si>
   <si>
     <t>Shonan Bellmare</t>
@@ -3768,6 +3768,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3785,12 +3791,6 @@
       <sz val="14"/>
       <color rgb="FF03122b"/>
       <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -3833,16 +3833,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3853,29 +3850,23 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4497,7 +4488,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>1224</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4519,7 +4510,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5488,9 +5479,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="33.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="8">
@@ -5780,7 +5771,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="8">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>793</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -8074,7 +8065,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13199,8 +13190,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="28.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -13208,7 +13199,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -13219,7 +13210,7 @@
       <c r="A2" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -13230,7 +13221,7 @@
       <c r="A3" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -13241,7 +13232,7 @@
       <c r="A4" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -13252,7 +13243,7 @@
       <c r="A5" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -13263,7 +13254,7 @@
       <c r="A6" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -13274,7 +13265,7 @@
       <c r="A7" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -13285,7 +13276,7 @@
       <c r="A8" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -13296,7 +13287,7 @@
       <c r="A9" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -13307,7 +13298,7 @@
       <c r="A10" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -13318,7 +13309,7 @@
       <c r="A11" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -13329,7 +13320,7 @@
       <c r="A12" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -13340,7 +13331,7 @@
       <c r="A13" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -13351,7 +13342,7 @@
       <c r="A14" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -13362,7 +13353,7 @@
       <c r="A15" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -13373,7 +13364,7 @@
       <c r="A16" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -13384,7 +13375,7 @@
       <c r="A17" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -13395,7 +13386,7 @@
       <c r="A18" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -13406,7 +13397,7 @@
       <c r="A19" s="9" t="s">
         <v>1039</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -13417,7 +13408,7 @@
       <c r="A20" s="9" t="s">
         <v>1040</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -13428,7 +13419,7 @@
       <c r="A21" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -13439,7 +13430,7 @@
       <c r="A22" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -13450,7 +13441,7 @@
       <c r="A23" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -13461,7 +13452,7 @@
       <c r="A24" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -13472,7 +13463,7 @@
       <c r="A25" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -13483,7 +13474,7 @@
       <c r="A26" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -13494,7 +13485,7 @@
       <c r="A27" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -13502,10 +13493,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">

--- a/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
+++ b/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="19"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Ecuador"/>
@@ -3761,7 +3761,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3771,7 +3771,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3791,12 +3791,6 @@
       <sz val="14"/>
       <color rgb="FF03122b"/>
       <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -3833,7 +3827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -3859,22 +3853,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4488,7 +4479,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>1224</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4839,7 +4830,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4853,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>794</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -5479,19 +5470,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="33.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5499,10 +5490,10 @@
       <c r="A2" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5510,10 +5501,10 @@
       <c r="A3" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>766</v>
       </c>
     </row>
@@ -5521,10 +5512,10 @@
       <c r="A4" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5532,10 +5523,10 @@
       <c r="A5" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5543,10 +5534,10 @@
       <c r="A6" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5554,10 +5545,10 @@
       <c r="A7" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5565,10 +5556,10 @@
       <c r="A8" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5576,10 +5567,10 @@
       <c r="A9" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5587,10 +5578,10 @@
       <c r="A10" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>774</v>
       </c>
     </row>
@@ -5598,10 +5589,10 @@
       <c r="A11" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5609,10 +5600,10 @@
       <c r="A12" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5620,10 +5611,10 @@
       <c r="A13" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5631,10 +5622,10 @@
       <c r="A14" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5642,10 +5633,10 @@
       <c r="A15" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5653,10 +5644,10 @@
       <c r="A16" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5664,10 +5655,10 @@
       <c r="A17" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5675,10 +5666,10 @@
       <c r="A18" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>774</v>
       </c>
     </row>
@@ -5686,10 +5677,10 @@
       <c r="A19" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>784</v>
       </c>
     </row>
@@ -5697,10 +5688,10 @@
       <c r="A20" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>784</v>
       </c>
     </row>
@@ -5708,10 +5699,10 @@
       <c r="A21" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>787</v>
       </c>
     </row>
@@ -5719,10 +5710,10 @@
       <c r="A22" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5730,10 +5721,10 @@
       <c r="A23" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5741,10 +5732,10 @@
       <c r="A24" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5752,10 +5743,10 @@
       <c r="A25" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5763,10 +5754,10 @@
       <c r="A26" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -8065,7 +8056,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13190,8 +13181,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="28.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -13199,7 +13190,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -13210,7 +13201,7 @@
       <c r="A2" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -13221,7 +13212,7 @@
       <c r="A3" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -13232,7 +13223,7 @@
       <c r="A4" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -13243,7 +13234,7 @@
       <c r="A5" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -13254,7 +13245,7 @@
       <c r="A6" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -13265,7 +13256,7 @@
       <c r="A7" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -13276,7 +13267,7 @@
       <c r="A8" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -13287,7 +13278,7 @@
       <c r="A9" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -13298,7 +13289,7 @@
       <c r="A10" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -13309,7 +13300,7 @@
       <c r="A11" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -13320,7 +13311,7 @@
       <c r="A12" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -13331,7 +13322,7 @@
       <c r="A13" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -13342,7 +13333,7 @@
       <c r="A14" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -13353,7 +13344,7 @@
       <c r="A15" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -13364,7 +13355,7 @@
       <c r="A16" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -13375,7 +13366,7 @@
       <c r="A17" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -13386,7 +13377,7 @@
       <c r="A18" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -13397,7 +13388,7 @@
       <c r="A19" s="9" t="s">
         <v>1039</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -13408,7 +13399,7 @@
       <c r="A20" s="9" t="s">
         <v>1040</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -13419,7 +13410,7 @@
       <c r="A21" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -13430,7 +13421,7 @@
       <c r="A22" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -13441,7 +13432,7 @@
       <c r="A23" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -13452,7 +13443,7 @@
       <c r="A24" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -13463,7 +13454,7 @@
       <c r="A25" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -13474,7 +13465,7 @@
       <c r="A26" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -13485,7 +13476,7 @@
       <c r="A27" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -13496,7 +13487,7 @@
       <c r="A28" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">

--- a/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
+++ b/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelozurita/Repositorios_GitHub/Group_Slytheryn/DASHBOARD/assets/datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5DB4C-CB2F-974E-918A-37B9C9316C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE2DF68-00C2-364D-897C-A47A9ECE0873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="1" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32640" windowHeight="20500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecuador" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="1229">
   <si>
     <t>Jugador</t>
   </si>
@@ -3769,6 +3769,9 @@
   </si>
   <si>
     <t>DT Luis Enrique</t>
+  </si>
+  <si>
+    <t>DT Robert  Pages</t>
   </si>
 </sst>
 </file>
@@ -7396,7 +7399,7 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -13223,7 +13226,9 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -13531,7 +13536,7 @@
     </row>
     <row r="28" spans="1:3" ht="17.25" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>793</v>
+        <v>1228</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>55</v>
@@ -13542,6 +13547,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
+++ b/DASHBOARD/assets/datas/Selecciones_mundial2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelozurita/Repositorios_GitHub/Group_Slytheryn/DASHBOARD/assets/datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE2DF68-00C2-364D-897C-A47A9ECE0873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB7904-77AC-1349-9B70-485EEA0B25F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32640" windowHeight="20500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32640" windowHeight="20500" firstSheet="13" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecuador" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="1230">
   <si>
     <t>Jugador</t>
   </si>
@@ -3772,6 +3772,9 @@
   </si>
   <si>
     <t>DT Robert  Pages</t>
+  </si>
+  <si>
+    <t>DT Jorge Gomes Bento</t>
   </si>
 </sst>
 </file>
@@ -10962,13 +10965,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -11268,6 +11273,17 @@
       </c>
       <c r="C27" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -13226,7 +13242,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
